--- a/bileti.xlsx
+++ b/bileti.xlsx
@@ -1441,7 +1441,7 @@
       <c r="F5" s="9" t="n"/>
       <c r="G5" s="68" t="inlineStr">
         <is>
-          <t>MAKSIM BORONENKOSHVILI</t>
+          <t>Erekle Pirtskhalava</t>
         </is>
       </c>
       <c r="H5" s="17" t="n"/>
@@ -1457,7 +1457,7 @@
       <c r="R5" s="17" t="n"/>
       <c r="S5" s="69" t="inlineStr">
         <is>
-          <t>765832345</t>
+          <t>55001010832</t>
         </is>
       </c>
       <c r="T5" s="17" t="n"/>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="11" ht="19.2" customHeight="1" s="11">
       <c r="A11" s="77" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G11" s="48" t="inlineStr">
         <is>

--- a/bileti.xlsx
+++ b/bileti.xlsx
@@ -18,7 +18,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <name val="Sylfaen"/>
       <family val="2"/>
@@ -88,9 +88,6 @@
       <sz val="12"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b val="1"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -536,7 +533,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -691,35 +688,11 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -960,31 +933,6 @@
         <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>23</col>
-      <colOff>0</colOff>
-      <row>9</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1447800" cy="1447800"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="5" name="Image 5" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1439,11 +1387,7 @@
       </c>
       <c r="E5" s="8" t="n"/>
       <c r="F5" s="9" t="n"/>
-      <c r="G5" s="68" t="inlineStr">
-        <is>
-          <t>Erekle Pirtskhalava</t>
-        </is>
-      </c>
+      <c r="G5" s="40" t="n"/>
       <c r="H5" s="17" t="n"/>
       <c r="I5" s="17" t="n"/>
       <c r="J5" s="17" t="n"/>
@@ -1455,11 +1399,7 @@
       <c r="P5" s="17" t="n"/>
       <c r="Q5" s="17" t="n"/>
       <c r="R5" s="17" t="n"/>
-      <c r="S5" s="69" t="inlineStr">
-        <is>
-          <t>55001010832</t>
-        </is>
-      </c>
+      <c r="S5" s="41" t="n"/>
       <c r="T5" s="17" t="n"/>
       <c r="U5" s="17" t="n"/>
       <c r="V5" s="17" t="n"/>
@@ -1523,15 +1463,9 @@
       <c r="AD6" s="34" t="n"/>
     </row>
     <row r="7" ht="19.2" customHeight="1" s="11">
-      <c r="A7" s="70" t="inlineStr">
-        <is>
-          <t>₾</t>
-        </is>
-      </c>
+      <c r="A7" s="15" t="n"/>
       <c r="C7" s="12" t="n"/>
-      <c r="D7" s="71" t="n">
-        <v>200</v>
-      </c>
+      <c r="D7" s="19" t="n"/>
       <c r="F7" s="12" t="n"/>
       <c r="G7" s="38" t="n"/>
       <c r="M7" s="12" t="n"/>
@@ -1551,20 +1485,14 @@
       <c r="D8" s="20" t="n"/>
       <c r="E8" s="17" t="n"/>
       <c r="F8" s="18" t="n"/>
-      <c r="G8" s="71" t="inlineStr">
-        <is>
-          <t>М / მმ</t>
-        </is>
-      </c>
+      <c r="G8" s="19" t="n"/>
       <c r="H8" s="17" t="n"/>
       <c r="I8" s="17" t="n"/>
       <c r="J8" s="17" t="n"/>
       <c r="K8" s="17" t="n"/>
       <c r="L8" s="17" t="n"/>
       <c r="M8" s="18" t="n"/>
-      <c r="N8" s="72" t="n">
-        <v>45148</v>
-      </c>
+      <c r="N8" s="42" t="n"/>
       <c r="O8" s="17" t="n"/>
       <c r="P8" s="17" t="n"/>
       <c r="Q8" s="17" t="n"/>
@@ -1573,11 +1501,7 @@
       <c r="T8" s="17" t="n"/>
       <c r="U8" s="17" t="n"/>
       <c r="V8" s="18" t="n"/>
-      <c r="W8" s="73" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
+      <c r="W8" s="43" t="n"/>
       <c r="X8" s="17" t="n"/>
       <c r="Y8" s="17" t="n"/>
       <c r="Z8" s="17" t="n"/>
@@ -1615,18 +1539,20 @@
         </is>
       </c>
       <c r="V10" s="12" t="n"/>
-      <c r="W10" s="74" t="n"/>
-      <c r="X10" s="75" t="n"/>
-      <c r="Y10" s="75" t="n"/>
-      <c r="Z10" s="75" t="n"/>
-      <c r="AA10" s="75" t="n"/>
-      <c r="AB10" s="75" t="n"/>
-      <c r="AC10" s="75" t="n"/>
-      <c r="AD10" s="76" t="n"/>
+      <c r="W10" s="68" t="n"/>
+      <c r="X10" s="69" t="n"/>
+      <c r="Y10" s="69" t="n"/>
+      <c r="Z10" s="69" t="n"/>
+      <c r="AA10" s="69" t="n"/>
+      <c r="AB10" s="69" t="n"/>
+      <c r="AC10" s="69" t="n"/>
+      <c r="AD10" s="70" t="n"/>
     </row>
     <row r="11" ht="19.2" customHeight="1" s="11">
-      <c r="A11" s="77" t="n">
-        <v>24</v>
+      <c r="A11" s="46" t="inlineStr">
+        <is>
+          <t>Место</t>
+        </is>
       </c>
       <c r="G11" s="48" t="inlineStr">
         <is>
@@ -1708,9 +1634,9 @@
       <c r="AD13" s="36" t="n"/>
     </row>
     <row r="14" ht="19.2" customHeight="1" s="11">
-      <c r="A14" s="78" t="inlineStr">
-        <is>
-          <t>11 : 00</t>
+      <c r="A14" s="52" t="inlineStr">
+        <is>
+          <t>время выезда</t>
         </is>
       </c>
       <c r="F14" s="12" t="n"/>
@@ -1765,35 +1691,35 @@
           <t xml:space="preserve">გისურვებთ   მშვიდობიან   მგზავრობას  /  Желаем   счастливого   пути  </t>
         </is>
       </c>
-      <c r="B16" s="79" t="n"/>
-      <c r="C16" s="79" t="n"/>
-      <c r="D16" s="79" t="n"/>
-      <c r="E16" s="79" t="n"/>
-      <c r="F16" s="79" t="n"/>
-      <c r="G16" s="79" t="n"/>
-      <c r="H16" s="79" t="n"/>
-      <c r="I16" s="79" t="n"/>
-      <c r="J16" s="79" t="n"/>
-      <c r="K16" s="79" t="n"/>
-      <c r="L16" s="79" t="n"/>
-      <c r="M16" s="79" t="n"/>
-      <c r="N16" s="79" t="n"/>
-      <c r="O16" s="79" t="n"/>
-      <c r="P16" s="79" t="n"/>
-      <c r="Q16" s="79" t="n"/>
-      <c r="R16" s="79" t="n"/>
-      <c r="S16" s="79" t="n"/>
-      <c r="T16" s="79" t="n"/>
-      <c r="U16" s="79" t="n"/>
-      <c r="V16" s="79" t="n"/>
-      <c r="W16" s="79" t="n"/>
-      <c r="X16" s="79" t="n"/>
-      <c r="Y16" s="79" t="n"/>
-      <c r="Z16" s="79" t="n"/>
-      <c r="AA16" s="79" t="n"/>
-      <c r="AB16" s="79" t="n"/>
-      <c r="AC16" s="79" t="n"/>
-      <c r="AD16" s="80" t="n"/>
+      <c r="B16" s="71" t="n"/>
+      <c r="C16" s="71" t="n"/>
+      <c r="D16" s="71" t="n"/>
+      <c r="E16" s="71" t="n"/>
+      <c r="F16" s="71" t="n"/>
+      <c r="G16" s="71" t="n"/>
+      <c r="H16" s="71" t="n"/>
+      <c r="I16" s="71" t="n"/>
+      <c r="J16" s="71" t="n"/>
+      <c r="K16" s="71" t="n"/>
+      <c r="L16" s="71" t="n"/>
+      <c r="M16" s="71" t="n"/>
+      <c r="N16" s="71" t="n"/>
+      <c r="O16" s="71" t="n"/>
+      <c r="P16" s="71" t="n"/>
+      <c r="Q16" s="71" t="n"/>
+      <c r="R16" s="71" t="n"/>
+      <c r="S16" s="71" t="n"/>
+      <c r="T16" s="71" t="n"/>
+      <c r="U16" s="71" t="n"/>
+      <c r="V16" s="71" t="n"/>
+      <c r="W16" s="71" t="n"/>
+      <c r="X16" s="71" t="n"/>
+      <c r="Y16" s="71" t="n"/>
+      <c r="Z16" s="71" t="n"/>
+      <c r="AA16" s="71" t="n"/>
+      <c r="AB16" s="71" t="n"/>
+      <c r="AC16" s="71" t="n"/>
+      <c r="AD16" s="72" t="n"/>
     </row>
     <row r="17" ht="13.2" customHeight="1" s="11">
       <c r="A17" s="1" t="n"/>

--- a/bileti.xlsx
+++ b/bileti.xlsx
@@ -546,21 +546,108 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -602,93 +689,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -849,8 +849,8 @@
     <to>
       <col>9</col>
       <colOff>164353</colOff>
-      <row>15</row>
-      <rowOff>52293</rowOff>
+      <row>14</row>
+      <rowOff>276411</rowOff>
     </to>
     <pic>
       <nvPicPr>
@@ -1257,7 +1257,7 @@
   <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="G8" sqref="A8:XFD8"/>
+      <selection activeCell="AI11" sqref="AI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -1272,111 +1272,111 @@
   </cols>
   <sheetData>
     <row r="1" ht="19.2" customHeight="1" s="9">
-      <c r="A1" s="54" t="n"/>
-      <c r="B1" s="51" t="n"/>
-      <c r="C1" s="51" t="n"/>
-      <c r="D1" s="51" t="n"/>
-      <c r="E1" s="51" t="n"/>
-      <c r="F1" s="55" t="n"/>
-      <c r="G1" s="50" t="inlineStr">
+      <c r="A1" s="24" t="n"/>
+      <c r="B1" s="20" t="n"/>
+      <c r="C1" s="20" t="n"/>
+      <c r="D1" s="20" t="n"/>
+      <c r="E1" s="20" t="n"/>
+      <c r="F1" s="25" t="n"/>
+      <c r="G1" s="19" t="inlineStr">
         <is>
           <t xml:space="preserve">სამგზავრო ბილეთი / Проездной билет </t>
         </is>
       </c>
-      <c r="H1" s="51" t="n"/>
-      <c r="I1" s="51" t="n"/>
-      <c r="J1" s="51" t="n"/>
-      <c r="K1" s="51" t="n"/>
-      <c r="L1" s="51" t="n"/>
-      <c r="M1" s="51" t="n"/>
-      <c r="N1" s="51" t="n"/>
-      <c r="O1" s="51" t="n"/>
-      <c r="P1" s="51" t="n"/>
-      <c r="Q1" s="51" t="n"/>
-      <c r="R1" s="51" t="n"/>
-      <c r="S1" s="51" t="n"/>
-      <c r="T1" s="51" t="n"/>
-      <c r="U1" s="51" t="n"/>
-      <c r="V1" s="51" t="n"/>
-      <c r="W1" s="51" t="n"/>
-      <c r="X1" s="51" t="n"/>
-      <c r="Y1" s="51" t="n"/>
-      <c r="Z1" s="51" t="n"/>
-      <c r="AA1" s="51" t="n"/>
-      <c r="AB1" s="51" t="n"/>
-      <c r="AC1" s="51" t="n"/>
-      <c r="AD1" s="52" t="n"/>
+      <c r="H1" s="20" t="n"/>
+      <c r="I1" s="20" t="n"/>
+      <c r="J1" s="20" t="n"/>
+      <c r="K1" s="20" t="n"/>
+      <c r="L1" s="20" t="n"/>
+      <c r="M1" s="20" t="n"/>
+      <c r="N1" s="20" t="n"/>
+      <c r="O1" s="20" t="n"/>
+      <c r="P1" s="20" t="n"/>
+      <c r="Q1" s="20" t="n"/>
+      <c r="R1" s="20" t="n"/>
+      <c r="S1" s="20" t="n"/>
+      <c r="T1" s="20" t="n"/>
+      <c r="U1" s="20" t="n"/>
+      <c r="V1" s="20" t="n"/>
+      <c r="W1" s="20" t="n"/>
+      <c r="X1" s="20" t="n"/>
+      <c r="Y1" s="20" t="n"/>
+      <c r="Z1" s="20" t="n"/>
+      <c r="AA1" s="20" t="n"/>
+      <c r="AB1" s="20" t="n"/>
+      <c r="AC1" s="20" t="n"/>
+      <c r="AD1" s="21" t="n"/>
     </row>
     <row r="2" ht="16.2" customHeight="1" s="9">
-      <c r="A2" s="56" t="n"/>
+      <c r="A2" s="26" t="n"/>
       <c r="F2" s="10" t="n"/>
-      <c r="G2" s="53" t="inlineStr">
+      <c r="G2" s="22" t="inlineStr">
         <is>
           <t>სატრანსპორტო კომპანია VIP-TOUR/ Транспортная компания VIP-TOUR</t>
         </is>
       </c>
-      <c r="H2" s="12" t="n"/>
-      <c r="I2" s="12" t="n"/>
-      <c r="J2" s="12" t="n"/>
-      <c r="K2" s="12" t="n"/>
-      <c r="L2" s="12" t="n"/>
-      <c r="M2" s="12" t="n"/>
-      <c r="N2" s="12" t="n"/>
-      <c r="O2" s="12" t="n"/>
-      <c r="P2" s="12" t="n"/>
-      <c r="Q2" s="12" t="n"/>
-      <c r="R2" s="12" t="n"/>
-      <c r="S2" s="12" t="n"/>
-      <c r="T2" s="12" t="n"/>
-      <c r="U2" s="12" t="n"/>
-      <c r="V2" s="12" t="n"/>
-      <c r="W2" s="12" t="n"/>
-      <c r="X2" s="12" t="n"/>
-      <c r="Y2" s="12" t="n"/>
-      <c r="Z2" s="12" t="n"/>
-      <c r="AA2" s="12" t="n"/>
-      <c r="AB2" s="12" t="n"/>
-      <c r="AC2" s="12" t="n"/>
-      <c r="AD2" s="31" t="n"/>
+      <c r="H2" s="15" t="n"/>
+      <c r="I2" s="15" t="n"/>
+      <c r="J2" s="15" t="n"/>
+      <c r="K2" s="15" t="n"/>
+      <c r="L2" s="15" t="n"/>
+      <c r="M2" s="15" t="n"/>
+      <c r="N2" s="15" t="n"/>
+      <c r="O2" s="15" t="n"/>
+      <c r="P2" s="15" t="n"/>
+      <c r="Q2" s="15" t="n"/>
+      <c r="R2" s="15" t="n"/>
+      <c r="S2" s="15" t="n"/>
+      <c r="T2" s="15" t="n"/>
+      <c r="U2" s="15" t="n"/>
+      <c r="V2" s="15" t="n"/>
+      <c r="W2" s="15" t="n"/>
+      <c r="X2" s="15" t="n"/>
+      <c r="Y2" s="15" t="n"/>
+      <c r="Z2" s="15" t="n"/>
+      <c r="AA2" s="15" t="n"/>
+      <c r="AB2" s="15" t="n"/>
+      <c r="AC2" s="15" t="n"/>
+      <c r="AD2" s="23" t="n"/>
     </row>
     <row r="3" ht="15" customHeight="1" s="9">
-      <c r="A3" s="57" t="n"/>
-      <c r="B3" s="12" t="n"/>
-      <c r="C3" s="12" t="n"/>
-      <c r="D3" s="12" t="n"/>
-      <c r="E3" s="12" t="n"/>
-      <c r="F3" s="13" t="n"/>
-      <c r="G3" s="58" t="inlineStr">
+      <c r="A3" s="14" t="n"/>
+      <c r="B3" s="15" t="n"/>
+      <c r="C3" s="15" t="n"/>
+      <c r="D3" s="15" t="n"/>
+      <c r="E3" s="15" t="n"/>
+      <c r="F3" s="16" t="n"/>
+      <c r="G3" s="27" t="inlineStr">
         <is>
           <t>თბილისი - მოსკოვი / Тбилиси - Москва</t>
         </is>
       </c>
-      <c r="H3" s="59" t="n"/>
-      <c r="I3" s="59" t="n"/>
-      <c r="J3" s="59" t="n"/>
-      <c r="K3" s="59" t="n"/>
-      <c r="L3" s="59" t="n"/>
-      <c r="M3" s="59" t="n"/>
-      <c r="N3" s="59" t="n"/>
-      <c r="O3" s="59" t="n"/>
-      <c r="P3" s="59" t="n"/>
-      <c r="Q3" s="59" t="n"/>
-      <c r="R3" s="59" t="n"/>
-      <c r="S3" s="59" t="n"/>
-      <c r="T3" s="59" t="n"/>
-      <c r="U3" s="59" t="n"/>
-      <c r="V3" s="59" t="n"/>
-      <c r="W3" s="59" t="n"/>
-      <c r="X3" s="59" t="n"/>
-      <c r="Y3" s="59" t="n"/>
-      <c r="Z3" s="59" t="n"/>
-      <c r="AA3" s="59" t="n"/>
-      <c r="AB3" s="59" t="n"/>
-      <c r="AC3" s="59" t="n"/>
-      <c r="AD3" s="60" t="n"/>
+      <c r="H3" s="28" t="n"/>
+      <c r="I3" s="28" t="n"/>
+      <c r="J3" s="28" t="n"/>
+      <c r="K3" s="28" t="n"/>
+      <c r="L3" s="28" t="n"/>
+      <c r="M3" s="28" t="n"/>
+      <c r="N3" s="28" t="n"/>
+      <c r="O3" s="28" t="n"/>
+      <c r="P3" s="28" t="n"/>
+      <c r="Q3" s="28" t="n"/>
+      <c r="R3" s="28" t="n"/>
+      <c r="S3" s="28" t="n"/>
+      <c r="T3" s="28" t="n"/>
+      <c r="U3" s="28" t="n"/>
+      <c r="V3" s="28" t="n"/>
+      <c r="W3" s="28" t="n"/>
+      <c r="X3" s="28" t="n"/>
+      <c r="Y3" s="28" t="n"/>
+      <c r="Z3" s="28" t="n"/>
+      <c r="AA3" s="28" t="n"/>
+      <c r="AB3" s="28" t="n"/>
+      <c r="AC3" s="28" t="n"/>
+      <c r="AD3" s="29" t="n"/>
     </row>
     <row r="4" ht="19.2" customHeight="1" s="9">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="A4" s="30" t="inlineStr">
         <is>
           <t>ფასი / Цена</t>
         </is>
@@ -1386,7 +1386,7 @@
       <c r="D4" s="6" t="n"/>
       <c r="E4" s="6" t="n"/>
       <c r="F4" s="7" t="n"/>
-      <c r="G4" s="47" t="inlineStr">
+      <c r="G4" s="37" t="inlineStr">
         <is>
           <t>სახელი გვარი / Имя фамилия</t>
         </is>
@@ -1402,7 +1402,7 @@
       <c r="P4" s="6" t="n"/>
       <c r="Q4" s="6" t="n"/>
       <c r="R4" s="6" t="n"/>
-      <c r="S4" s="42" t="inlineStr">
+      <c r="S4" s="31" t="inlineStr">
         <is>
           <t>პასპორტი / Паспорт</t>
         </is>
@@ -1417,17 +1417,17 @@
       <c r="AA4" s="6" t="n"/>
       <c r="AB4" s="6" t="n"/>
       <c r="AC4" s="6" t="n"/>
-      <c r="AD4" s="43" t="n"/>
+      <c r="AD4" s="32" t="n"/>
     </row>
     <row r="5" ht="19.2" customHeight="1" s="9">
-      <c r="A5" s="61" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>ვალუტა</t>
         </is>
       </c>
       <c r="B5" s="6" t="n"/>
       <c r="C5" s="7" t="n"/>
-      <c r="D5" s="63" t="inlineStr">
+      <c r="D5" s="11" t="inlineStr">
         <is>
           <t>ღირებულება</t>
         </is>
@@ -1436,51 +1436,51 @@
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="66" t="inlineStr">
         <is>
-          <t>GIORGI METREVELI</t>
-        </is>
-      </c>
-      <c r="H5" s="12" t="n"/>
-      <c r="I5" s="12" t="n"/>
-      <c r="J5" s="12" t="n"/>
-      <c r="K5" s="12" t="n"/>
-      <c r="L5" s="12" t="n"/>
-      <c r="M5" s="12" t="n"/>
-      <c r="N5" s="12" t="n"/>
-      <c r="O5" s="12" t="n"/>
-      <c r="P5" s="12" t="n"/>
-      <c r="Q5" s="12" t="n"/>
-      <c r="R5" s="12" t="n"/>
+          <t>KJNJNL</t>
+        </is>
+      </c>
+      <c r="H5" s="15" t="n"/>
+      <c r="I5" s="15" t="n"/>
+      <c r="J5" s="15" t="n"/>
+      <c r="K5" s="15" t="n"/>
+      <c r="L5" s="15" t="n"/>
+      <c r="M5" s="15" t="n"/>
+      <c r="N5" s="15" t="n"/>
+      <c r="O5" s="15" t="n"/>
+      <c r="P5" s="15" t="n"/>
+      <c r="Q5" s="15" t="n"/>
+      <c r="R5" s="15" t="n"/>
       <c r="S5" s="67" t="inlineStr">
         <is>
-          <t>293410328</t>
-        </is>
-      </c>
-      <c r="T5" s="12" t="n"/>
-      <c r="U5" s="12" t="n"/>
-      <c r="V5" s="12" t="n"/>
-      <c r="W5" s="12" t="n"/>
-      <c r="X5" s="12" t="n"/>
-      <c r="Y5" s="12" t="n"/>
-      <c r="Z5" s="12" t="n"/>
-      <c r="AA5" s="12" t="n"/>
-      <c r="AB5" s="12" t="n"/>
-      <c r="AC5" s="12" t="n"/>
-      <c r="AD5" s="31" t="n"/>
+          <t>jnjk</t>
+        </is>
+      </c>
+      <c r="T5" s="15" t="n"/>
+      <c r="U5" s="15" t="n"/>
+      <c r="V5" s="15" t="n"/>
+      <c r="W5" s="15" t="n"/>
+      <c r="X5" s="15" t="n"/>
+      <c r="Y5" s="15" t="n"/>
+      <c r="Z5" s="15" t="n"/>
+      <c r="AA5" s="15" t="n"/>
+      <c r="AB5" s="15" t="n"/>
+      <c r="AC5" s="15" t="n"/>
+      <c r="AD5" s="23" t="n"/>
     </row>
     <row r="6" ht="19.2" customHeight="1" s="9">
-      <c r="A6" s="62" t="inlineStr">
+      <c r="A6" s="8" t="inlineStr">
         <is>
           <t>Валюта</t>
         </is>
       </c>
       <c r="C6" s="10" t="n"/>
-      <c r="D6" s="64" t="inlineStr">
+      <c r="D6" s="12" t="inlineStr">
         <is>
           <t>Стоимость</t>
         </is>
       </c>
       <c r="F6" s="10" t="n"/>
-      <c r="G6" s="45" t="inlineStr">
+      <c r="G6" s="35" t="inlineStr">
         <is>
           <t>სქესი / Пол</t>
         </is>
@@ -1491,7 +1491,7 @@
       <c r="K6" s="6" t="n"/>
       <c r="L6" s="6" t="n"/>
       <c r="M6" s="7" t="n"/>
-      <c r="N6" s="45" t="inlineStr">
+      <c r="N6" s="35" t="inlineStr">
         <is>
           <t>თარიღი / Дата</t>
         </is>
@@ -1504,7 +1504,7 @@
       <c r="T6" s="6" t="n"/>
       <c r="U6" s="6" t="n"/>
       <c r="V6" s="7" t="n"/>
-      <c r="W6" s="42" t="inlineStr">
+      <c r="W6" s="31" t="inlineStr">
         <is>
           <t>დანიშნულების ადგილი</t>
         </is>
@@ -1515,7 +1515,7 @@
       <c r="AA6" s="6" t="n"/>
       <c r="AB6" s="6" t="n"/>
       <c r="AC6" s="6" t="n"/>
-      <c r="AD6" s="43" t="n"/>
+      <c r="AD6" s="32" t="n"/>
     </row>
     <row r="7" ht="19.2" customHeight="1" s="9">
       <c r="A7" s="68" t="inlineStr">
@@ -1528,58 +1528,58 @@
         <v>200</v>
       </c>
       <c r="F7" s="10" t="n"/>
-      <c r="G7" s="46" t="n"/>
+      <c r="G7" s="36" t="n"/>
       <c r="M7" s="10" t="n"/>
-      <c r="N7" s="46" t="n"/>
+      <c r="N7" s="36" t="n"/>
       <c r="V7" s="10" t="n"/>
-      <c r="W7" s="44" t="inlineStr">
+      <c r="W7" s="33" t="inlineStr">
         <is>
           <t>Место прибытия</t>
         </is>
       </c>
-      <c r="AD7" s="41" t="n"/>
+      <c r="AD7" s="34" t="n"/>
     </row>
     <row r="8" ht="16.8" customHeight="1" s="9">
-      <c r="A8" s="57" t="n"/>
-      <c r="B8" s="12" t="n"/>
-      <c r="C8" s="13" t="n"/>
-      <c r="D8" s="65" t="n"/>
-      <c r="E8" s="12" t="n"/>
-      <c r="F8" s="13" t="n"/>
+      <c r="A8" s="14" t="n"/>
+      <c r="B8" s="15" t="n"/>
+      <c r="C8" s="16" t="n"/>
+      <c r="D8" s="18" t="n"/>
+      <c r="E8" s="15" t="n"/>
+      <c r="F8" s="16" t="n"/>
       <c r="G8" s="69" t="inlineStr">
         <is>
           <t>М / მმ</t>
         </is>
       </c>
-      <c r="H8" s="12" t="n"/>
-      <c r="I8" s="12" t="n"/>
-      <c r="J8" s="12" t="n"/>
-      <c r="K8" s="12" t="n"/>
-      <c r="L8" s="12" t="n"/>
-      <c r="M8" s="13" t="n"/>
+      <c r="H8" s="15" t="n"/>
+      <c r="I8" s="15" t="n"/>
+      <c r="J8" s="15" t="n"/>
+      <c r="K8" s="15" t="n"/>
+      <c r="L8" s="15" t="n"/>
+      <c r="M8" s="16" t="n"/>
       <c r="N8" s="70" t="n">
-        <v>45148</v>
-      </c>
-      <c r="O8" s="12" t="n"/>
-      <c r="P8" s="12" t="n"/>
-      <c r="Q8" s="12" t="n"/>
-      <c r="R8" s="12" t="n"/>
-      <c r="S8" s="12" t="n"/>
-      <c r="T8" s="12" t="n"/>
-      <c r="U8" s="12" t="n"/>
-      <c r="V8" s="13" t="n"/>
+        <v>45214</v>
+      </c>
+      <c r="O8" s="15" t="n"/>
+      <c r="P8" s="15" t="n"/>
+      <c r="Q8" s="15" t="n"/>
+      <c r="R8" s="15" t="n"/>
+      <c r="S8" s="15" t="n"/>
+      <c r="T8" s="15" t="n"/>
+      <c r="U8" s="15" t="n"/>
+      <c r="V8" s="16" t="n"/>
       <c r="W8" s="71" t="inlineStr">
         <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="X8" s="12" t="n"/>
-      <c r="Y8" s="12" t="n"/>
-      <c r="Z8" s="12" t="n"/>
-      <c r="AA8" s="12" t="n"/>
-      <c r="AB8" s="12" t="n"/>
-      <c r="AC8" s="12" t="n"/>
-      <c r="AD8" s="31" t="n"/>
+          <t>Тула</t>
+        </is>
+      </c>
+      <c r="X8" s="15" t="n"/>
+      <c r="Y8" s="15" t="n"/>
+      <c r="Z8" s="15" t="n"/>
+      <c r="AA8" s="15" t="n"/>
+      <c r="AB8" s="15" t="n"/>
+      <c r="AC8" s="15" t="n"/>
+      <c r="AD8" s="23" t="n"/>
     </row>
     <row r="9" ht="2.55" customHeight="1" s="9">
       <c r="A9" s="4" t="n"/>
@@ -1588,22 +1588,22 @@
       <c r="M9" s="7" t="n"/>
       <c r="N9" s="3" t="n"/>
       <c r="V9" s="7" t="n"/>
-      <c r="W9" s="40" t="n"/>
-      <c r="AD9" s="41" t="n"/>
+      <c r="W9" s="49" t="n"/>
+      <c r="AD9" s="34" t="n"/>
     </row>
     <row r="10" ht="19.2" customHeight="1" s="9">
-      <c r="A10" s="33" t="inlineStr">
+      <c r="A10" s="43" t="inlineStr">
         <is>
           <t>ადგილი</t>
         </is>
       </c>
-      <c r="G10" s="35" t="inlineStr">
+      <c r="G10" s="45" t="inlineStr">
         <is>
           <t xml:space="preserve">ტელეფონი </t>
         </is>
       </c>
       <c r="M10" s="10" t="n"/>
-      <c r="N10" s="35" t="inlineStr">
+      <c r="N10" s="45" t="inlineStr">
         <is>
           <t>Телефон</t>
         </is>
@@ -1620,59 +1620,59 @@
     </row>
     <row r="11" ht="19.2" customHeight="1" s="9">
       <c r="A11" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="36" t="inlineStr">
+        <v>17</v>
+      </c>
+      <c r="G11" s="46" t="inlineStr">
         <is>
           <t>+ 995 595 08 02 70</t>
         </is>
       </c>
       <c r="M11" s="10" t="n"/>
-      <c r="N11" s="39" t="inlineStr">
+      <c r="N11" s="48" t="inlineStr">
         <is>
           <t>+ 7 977 444 27 45</t>
         </is>
       </c>
       <c r="V11" s="10" t="n"/>
-      <c r="W11" s="46" t="n"/>
-      <c r="AD11" s="41" t="n"/>
+      <c r="W11" s="36" t="n"/>
+      <c r="AD11" s="34" t="n"/>
     </row>
     <row r="12" ht="19.2" customHeight="1" s="9">
-      <c r="A12" s="32" t="n"/>
-      <c r="B12" s="12" t="n"/>
-      <c r="C12" s="12" t="n"/>
-      <c r="D12" s="12" t="n"/>
-      <c r="E12" s="12" t="n"/>
-      <c r="F12" s="12" t="n"/>
-      <c r="G12" s="38" t="inlineStr">
+      <c r="A12" s="42" t="n"/>
+      <c r="B12" s="15" t="n"/>
+      <c r="C12" s="15" t="n"/>
+      <c r="D12" s="15" t="n"/>
+      <c r="E12" s="15" t="n"/>
+      <c r="F12" s="15" t="n"/>
+      <c r="G12" s="47" t="inlineStr">
         <is>
           <t>+ 995 595 08 01 70</t>
         </is>
       </c>
-      <c r="H12" s="12" t="n"/>
-      <c r="I12" s="12" t="n"/>
-      <c r="J12" s="12" t="n"/>
-      <c r="K12" s="12" t="n"/>
-      <c r="L12" s="12" t="n"/>
-      <c r="M12" s="13" t="n"/>
-      <c r="N12" s="38" t="inlineStr">
+      <c r="H12" s="15" t="n"/>
+      <c r="I12" s="15" t="n"/>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="15" t="n"/>
+      <c r="L12" s="15" t="n"/>
+      <c r="M12" s="16" t="n"/>
+      <c r="N12" s="47" t="inlineStr">
         <is>
           <t>+ 7 977 444 15 48</t>
         </is>
       </c>
-      <c r="O12" s="12" t="n"/>
-      <c r="P12" s="12" t="n"/>
-      <c r="Q12" s="12" t="n"/>
-      <c r="R12" s="12" t="n"/>
-      <c r="S12" s="12" t="n"/>
-      <c r="T12" s="12" t="n"/>
-      <c r="U12" s="12" t="n"/>
-      <c r="V12" s="13" t="n"/>
-      <c r="W12" s="46" t="n"/>
-      <c r="AD12" s="41" t="n"/>
+      <c r="O12" s="15" t="n"/>
+      <c r="P12" s="15" t="n"/>
+      <c r="Q12" s="15" t="n"/>
+      <c r="R12" s="15" t="n"/>
+      <c r="S12" s="15" t="n"/>
+      <c r="T12" s="15" t="n"/>
+      <c r="U12" s="15" t="n"/>
+      <c r="V12" s="16" t="n"/>
+      <c r="W12" s="36" t="n"/>
+      <c r="AD12" s="34" t="n"/>
     </row>
     <row r="13" ht="19.2" customHeight="1" s="9">
-      <c r="A13" s="5" t="inlineStr">
+      <c r="A13" s="30" t="inlineStr">
         <is>
           <t>გასვლის დრო</t>
         </is>
@@ -1682,7 +1682,7 @@
       <c r="D13" s="6" t="n"/>
       <c r="E13" s="6" t="n"/>
       <c r="F13" s="7" t="n"/>
-      <c r="G13" s="18" t="n"/>
+      <c r="G13" s="55" t="n"/>
       <c r="H13" s="6" t="n"/>
       <c r="I13" s="6" t="n"/>
       <c r="J13" s="6" t="n"/>
@@ -1698,67 +1698,67 @@
       <c r="T13" s="6" t="n"/>
       <c r="U13" s="6" t="n"/>
       <c r="V13" s="7" t="n"/>
-      <c r="W13" s="46" t="n"/>
-      <c r="AD13" s="41" t="n"/>
+      <c r="W13" s="36" t="n"/>
+      <c r="AD13" s="34" t="n"/>
     </row>
     <row r="14" ht="19.2" customHeight="1" s="9">
-      <c r="A14" s="8" t="inlineStr">
+      <c r="A14" s="50" t="inlineStr">
         <is>
           <t>время выезда</t>
         </is>
       </c>
       <c r="F14" s="10" t="n"/>
-      <c r="G14" s="19" t="inlineStr">
+      <c r="G14" s="56" t="inlineStr">
         <is>
           <t xml:space="preserve">     viptour2020@gmail.com</t>
         </is>
       </c>
       <c r="V14" s="10" t="n"/>
-      <c r="W14" s="46" t="n"/>
-      <c r="AD14" s="41" t="n"/>
+      <c r="W14" s="36" t="n"/>
+      <c r="AD14" s="34" t="n"/>
     </row>
-    <row r="15" ht="17.4" customHeight="1" s="9">
+    <row r="15" ht="23.4" customHeight="1" s="9">
       <c r="A15" s="68" t="inlineStr">
         <is>
           <t>11 : 00</t>
         </is>
       </c>
-      <c r="B15" s="12" t="n"/>
-      <c r="C15" s="12" t="n"/>
-      <c r="D15" s="12" t="n"/>
-      <c r="E15" s="12" t="n"/>
-      <c r="F15" s="13" t="n"/>
-      <c r="G15" s="14" t="inlineStr">
+      <c r="B15" s="15" t="n"/>
+      <c r="C15" s="15" t="n"/>
+      <c r="D15" s="15" t="n"/>
+      <c r="E15" s="15" t="n"/>
+      <c r="F15" s="16" t="n"/>
+      <c r="G15" s="51" t="inlineStr">
         <is>
           <t>viptourtbilisimoskow</t>
         </is>
       </c>
-      <c r="H15" s="12" t="n"/>
-      <c r="I15" s="12" t="n"/>
-      <c r="J15" s="12" t="n"/>
-      <c r="K15" s="12" t="n"/>
-      <c r="L15" s="12" t="n"/>
-      <c r="M15" s="12" t="n"/>
-      <c r="N15" s="12" t="n"/>
-      <c r="O15" s="12" t="n"/>
-      <c r="P15" s="12" t="n"/>
-      <c r="Q15" s="12" t="n"/>
-      <c r="R15" s="12" t="n"/>
-      <c r="S15" s="12" t="n"/>
-      <c r="T15" s="12" t="n"/>
-      <c r="U15" s="12" t="n"/>
-      <c r="V15" s="13" t="n"/>
-      <c r="W15" s="65" t="n"/>
-      <c r="X15" s="12" t="n"/>
-      <c r="Y15" s="12" t="n"/>
-      <c r="Z15" s="12" t="n"/>
-      <c r="AA15" s="12" t="n"/>
-      <c r="AB15" s="12" t="n"/>
-      <c r="AC15" s="12" t="n"/>
-      <c r="AD15" s="31" t="n"/>
+      <c r="H15" s="15" t="n"/>
+      <c r="I15" s="15" t="n"/>
+      <c r="J15" s="15" t="n"/>
+      <c r="K15" s="15" t="n"/>
+      <c r="L15" s="15" t="n"/>
+      <c r="M15" s="15" t="n"/>
+      <c r="N15" s="15" t="n"/>
+      <c r="O15" s="15" t="n"/>
+      <c r="P15" s="15" t="n"/>
+      <c r="Q15" s="15" t="n"/>
+      <c r="R15" s="15" t="n"/>
+      <c r="S15" s="15" t="n"/>
+      <c r="T15" s="15" t="n"/>
+      <c r="U15" s="15" t="n"/>
+      <c r="V15" s="16" t="n"/>
+      <c r="W15" s="18" t="n"/>
+      <c r="X15" s="15" t="n"/>
+      <c r="Y15" s="15" t="n"/>
+      <c r="Z15" s="15" t="n"/>
+      <c r="AA15" s="15" t="n"/>
+      <c r="AB15" s="15" t="n"/>
+      <c r="AC15" s="15" t="n"/>
+      <c r="AD15" s="23" t="n"/>
     </row>
     <row r="16" ht="16.2" customHeight="1" s="9" thickBot="1">
-      <c r="A16" s="15" t="inlineStr">
+      <c r="A16" s="52" t="inlineStr">
         <is>
           <t xml:space="preserve">გისურვებთ   მშვიდობიან   მგზავრობას  /  Желаем   счастливого   пути  </t>
         </is>
@@ -1795,25 +1795,14 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:F8"/>
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="G2:AD2"/>
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="G3:AD3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="W6:AD6"/>
-    <mergeCell ref="W7:AD7"/>
-    <mergeCell ref="N6:V7"/>
-    <mergeCell ref="G4:R4"/>
-    <mergeCell ref="S4:AD4"/>
-    <mergeCell ref="G5:R5"/>
-    <mergeCell ref="S5:AD5"/>
-    <mergeCell ref="G6:M7"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:V15"/>
+    <mergeCell ref="A16:AD16"/>
+    <mergeCell ref="G13:V13"/>
+    <mergeCell ref="G14:V14"/>
+    <mergeCell ref="W10:AD15"/>
     <mergeCell ref="N8:V8"/>
     <mergeCell ref="W8:AD8"/>
     <mergeCell ref="A12:F12"/>
@@ -1827,14 +1816,25 @@
     <mergeCell ref="N10:V10"/>
     <mergeCell ref="N12:V12"/>
     <mergeCell ref="W9:AD9"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:V15"/>
-    <mergeCell ref="A16:AD16"/>
-    <mergeCell ref="G13:V13"/>
-    <mergeCell ref="G14:V14"/>
-    <mergeCell ref="W10:AD15"/>
+    <mergeCell ref="W6:AD6"/>
+    <mergeCell ref="W7:AD7"/>
+    <mergeCell ref="N6:V7"/>
+    <mergeCell ref="G4:R4"/>
+    <mergeCell ref="S4:AD4"/>
+    <mergeCell ref="G5:R5"/>
+    <mergeCell ref="S5:AD5"/>
+    <mergeCell ref="G6:M7"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="G2:AD2"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="G3:AD3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:F8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G14" display="viptour2020@gmail.com" r:id="rId1"/>

--- a/bileti.xlsx
+++ b/bileti.xlsx
@@ -1436,7 +1436,7 @@
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="66" t="inlineStr">
         <is>
-          <t>KJNJNL</t>
+          <t>LNOUPMI</t>
         </is>
       </c>
       <c r="H5" s="15" t="n"/>
@@ -1452,7 +1452,7 @@
       <c r="R5" s="15" t="n"/>
       <c r="S5" s="67" t="inlineStr">
         <is>
-          <t>jnjk</t>
+          <t>oipoim</t>
         </is>
       </c>
       <c r="T5" s="15" t="n"/>
@@ -1524,8 +1524,10 @@
         </is>
       </c>
       <c r="C7" s="10" t="n"/>
-      <c r="D7" s="69" t="n">
-        <v>200</v>
+      <c r="D7" s="69" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="F7" s="10" t="n"/>
       <c r="G7" s="36" t="n"/>
@@ -1558,7 +1560,7 @@
       <c r="L8" s="15" t="n"/>
       <c r="M8" s="16" t="n"/>
       <c r="N8" s="70" t="n">
-        <v>45214</v>
+        <v>45204</v>
       </c>
       <c r="O8" s="15" t="n"/>
       <c r="P8" s="15" t="n"/>
@@ -1570,7 +1572,7 @@
       <c r="V8" s="16" t="n"/>
       <c r="W8" s="71" t="inlineStr">
         <is>
-          <t>Тула</t>
+          <t>Воронеж</t>
         </is>
       </c>
       <c r="X8" s="15" t="n"/>
@@ -1620,7 +1622,7 @@
     </row>
     <row r="11" ht="19.2" customHeight="1" s="9">
       <c r="A11" s="75" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G11" s="46" t="inlineStr">
         <is>

--- a/bileti.xlsx
+++ b/bileti.xlsx
@@ -1436,7 +1436,7 @@
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="66" t="inlineStr">
         <is>
-          <t>LNOUPMI</t>
+          <t>ᲓᲓᲓ</t>
         </is>
       </c>
       <c r="H5" s="15" t="n"/>
@@ -1452,7 +1452,7 @@
       <c r="R5" s="15" t="n"/>
       <c r="S5" s="67" t="inlineStr">
         <is>
-          <t>oipoim</t>
+          <t>uoijooiuj</t>
         </is>
       </c>
       <c r="T5" s="15" t="n"/>
@@ -1572,7 +1572,7 @@
       <c r="V8" s="16" t="n"/>
       <c r="W8" s="71" t="inlineStr">
         <is>
-          <t>Воронеж</t>
+          <t>Тула</t>
         </is>
       </c>
       <c r="X8" s="15" t="n"/>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="11" ht="19.2" customHeight="1" s="9">
       <c r="A11" s="75" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G11" s="46" t="inlineStr">
         <is>

--- a/bileti.xlsx
+++ b/bileti.xlsx
@@ -1436,7 +1436,7 @@
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="66" t="inlineStr">
         <is>
-          <t>ᲓᲓᲓ</t>
+          <t>OUHIU</t>
         </is>
       </c>
       <c r="H5" s="15" t="n"/>
@@ -1452,7 +1452,7 @@
       <c r="R5" s="15" t="n"/>
       <c r="S5" s="67" t="inlineStr">
         <is>
-          <t>uoijooiuj</t>
+          <t>HIHI</t>
         </is>
       </c>
       <c r="T5" s="15" t="n"/>
@@ -1526,7 +1526,7 @@
       <c r="C7" s="10" t="n"/>
       <c r="D7" s="69" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F7" s="10" t="n"/>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="11" ht="19.2" customHeight="1" s="9">
       <c r="A11" s="75" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G11" s="46" t="inlineStr">
         <is>

--- a/bileti.xlsx
+++ b/bileti.xlsx
@@ -1436,7 +1436,7 @@
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="66" t="inlineStr">
         <is>
-          <t>OUHIU</t>
+          <t>JEMALI TSITSAKISHVILI</t>
         </is>
       </c>
       <c r="H5" s="15" t="n"/>
@@ -1452,7 +1452,7 @@
       <c r="R5" s="15" t="n"/>
       <c r="S5" s="67" t="inlineStr">
         <is>
-          <t>HIHI</t>
+          <t>47298752985</t>
         </is>
       </c>
       <c r="T5" s="15" t="n"/>
@@ -1526,7 +1526,7 @@
       <c r="C7" s="10" t="n"/>
       <c r="D7" s="69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F7" s="10" t="n"/>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="11" ht="19.2" customHeight="1" s="9">
       <c r="A11" s="75" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G11" s="46" t="inlineStr">
         <is>

--- a/bileti.xlsx
+++ b/bileti.xlsx
@@ -1436,7 +1436,7 @@
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="66" t="inlineStr">
         <is>
-          <t>JEMALI TSITSAKISHVILI</t>
+          <t>MALKHAZ LOMIDZE</t>
         </is>
       </c>
       <c r="H5" s="15" t="n"/>
@@ -1450,11 +1450,7 @@
       <c r="P5" s="15" t="n"/>
       <c r="Q5" s="15" t="n"/>
       <c r="R5" s="15" t="n"/>
-      <c r="S5" s="67" t="inlineStr">
-        <is>
-          <t>47298752985</t>
-        </is>
-      </c>
+      <c r="S5" s="67" t="inlineStr"/>
       <c r="T5" s="15" t="n"/>
       <c r="U5" s="15" t="n"/>
       <c r="V5" s="15" t="n"/>
@@ -1560,7 +1556,7 @@
       <c r="L8" s="15" t="n"/>
       <c r="M8" s="16" t="n"/>
       <c r="N8" s="70" t="n">
-        <v>45204</v>
+        <v>45148</v>
       </c>
       <c r="O8" s="15" t="n"/>
       <c r="P8" s="15" t="n"/>
@@ -1572,7 +1568,7 @@
       <c r="V8" s="16" t="n"/>
       <c r="W8" s="71" t="inlineStr">
         <is>
-          <t>Тула</t>
+          <t>Москва</t>
         </is>
       </c>
       <c r="X8" s="15" t="n"/>
@@ -1622,7 +1618,7 @@
     </row>
     <row r="11" ht="19.2" customHeight="1" s="9">
       <c r="A11" s="75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" s="46" t="inlineStr">
         <is>

--- a/bileti.xlsx
+++ b/bileti.xlsx
@@ -1436,7 +1436,7 @@
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="66" t="inlineStr">
         <is>
-          <t>MALKHAZ LOMIDZE</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H5" s="15" t="n"/>
@@ -1450,7 +1450,11 @@
       <c r="P5" s="15" t="n"/>
       <c r="Q5" s="15" t="n"/>
       <c r="R5" s="15" t="n"/>
-      <c r="S5" s="67" t="inlineStr"/>
+      <c r="S5" s="67" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
       <c r="T5" s="15" t="n"/>
       <c r="U5" s="15" t="n"/>
       <c r="V5" s="15" t="n"/>
@@ -1522,7 +1526,7 @@
       <c r="C7" s="10" t="n"/>
       <c r="D7" s="69" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F7" s="10" t="n"/>
@@ -1556,7 +1560,7 @@
       <c r="L8" s="15" t="n"/>
       <c r="M8" s="16" t="n"/>
       <c r="N8" s="70" t="n">
-        <v>45148</v>
+        <v>45204</v>
       </c>
       <c r="O8" s="15" t="n"/>
       <c r="P8" s="15" t="n"/>
@@ -1618,7 +1622,7 @@
     </row>
     <row r="11" ht="19.2" customHeight="1" s="9">
       <c r="A11" s="75" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G11" s="46" t="inlineStr">
         <is>

--- a/bileti.xlsx
+++ b/bileti.xlsx
@@ -1436,7 +1436,7 @@
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="66" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AFF</t>
         </is>
       </c>
       <c r="H5" s="15" t="n"/>
@@ -1452,7 +1452,7 @@
       <c r="R5" s="15" t="n"/>
       <c r="S5" s="67" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>v</t>
         </is>
       </c>
       <c r="T5" s="15" t="n"/>
@@ -1572,7 +1572,7 @@
       <c r="V8" s="16" t="n"/>
       <c r="W8" s="71" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Павловск</t>
         </is>
       </c>
       <c r="X8" s="15" t="n"/>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="11" ht="19.2" customHeight="1" s="9">
       <c r="A11" s="75" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G11" s="46" t="inlineStr">
         <is>

--- a/bileti.xlsx
+++ b/bileti.xlsx
@@ -1436,7 +1436,7 @@
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="66" t="inlineStr">
         <is>
-          <t>AFF</t>
+          <t>ᲓᲓᲓ</t>
         </is>
       </c>
       <c r="H5" s="15" t="n"/>
@@ -1452,7 +1452,7 @@
       <c r="R5" s="15" t="n"/>
       <c r="S5" s="67" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>uoijooiuj</t>
         </is>
       </c>
       <c r="T5" s="15" t="n"/>
@@ -1526,7 +1526,7 @@
       <c r="C7" s="10" t="n"/>
       <c r="D7" s="69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="F7" s="10" t="n"/>
@@ -1572,7 +1572,7 @@
       <c r="V8" s="16" t="n"/>
       <c r="W8" s="71" t="inlineStr">
         <is>
-          <t>Павловск</t>
+          <t>Санкт-Петербург</t>
         </is>
       </c>
       <c r="X8" s="15" t="n"/>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="11" ht="19.2" customHeight="1" s="9">
       <c r="A11" s="75" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G11" s="46" t="inlineStr">
         <is>

--- a/bileti.xlsx
+++ b/bileti.xlsx
@@ -1436,7 +1436,7 @@
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="66" t="inlineStr">
         <is>
-          <t>ᲓᲓᲓ</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H5" s="15" t="n"/>
@@ -1452,7 +1452,7 @@
       <c r="R5" s="15" t="n"/>
       <c r="S5" s="67" t="inlineStr">
         <is>
-          <t>uoijooiuj</t>
+          <t>1</t>
         </is>
       </c>
       <c r="T5" s="15" t="n"/>
@@ -1526,7 +1526,7 @@
       <c r="C7" s="10" t="n"/>
       <c r="D7" s="69" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F7" s="10" t="n"/>
@@ -1560,7 +1560,7 @@
       <c r="L8" s="15" t="n"/>
       <c r="M8" s="16" t="n"/>
       <c r="N8" s="70" t="n">
-        <v>45204</v>
+        <v>45211</v>
       </c>
       <c r="O8" s="15" t="n"/>
       <c r="P8" s="15" t="n"/>
@@ -1572,7 +1572,7 @@
       <c r="V8" s="16" t="n"/>
       <c r="W8" s="71" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Армавир</t>
         </is>
       </c>
       <c r="X8" s="15" t="n"/>

--- a/bileti.xlsx
+++ b/bileti.xlsx
@@ -1436,7 +1436,7 @@
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>MAKSIM BORONENKOSHVILI</t>
         </is>
       </c>
       <c r="H5" s="15" t="n"/>
@@ -1452,7 +1452,7 @@
       <c r="R5" s="15" t="n"/>
       <c r="S5" s="67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>qqew</t>
         </is>
       </c>
       <c r="T5" s="15" t="n"/>
@@ -1526,7 +1526,7 @@
       <c r="C7" s="10" t="n"/>
       <c r="D7" s="69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F7" s="10" t="n"/>
@@ -1560,7 +1560,7 @@
       <c r="L8" s="15" t="n"/>
       <c r="M8" s="16" t="n"/>
       <c r="N8" s="70" t="n">
-        <v>45211</v>
+        <v>45221</v>
       </c>
       <c r="O8" s="15" t="n"/>
       <c r="P8" s="15" t="n"/>
@@ -1572,7 +1572,7 @@
       <c r="V8" s="16" t="n"/>
       <c r="W8" s="71" t="inlineStr">
         <is>
-          <t>Армавир</t>
+          <t>Ростов</t>
         </is>
       </c>
       <c r="X8" s="15" t="n"/>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="11" ht="19.2" customHeight="1" s="9">
       <c r="A11" s="75" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G11" s="46" t="inlineStr">
         <is>

--- a/bileti.xlsx
+++ b/bileti.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -712,7 +712,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -795,7 +795,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>0</col>
@@ -813,26 +813,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Рисунок 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="38399" y="37353"/>
           <a:ext cx="1192204" cy="657411"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -856,24 +856,24 @@
       <nvPicPr>
         <cNvPr id="7" name="Рисунок 6"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="1830295" y="3212353"/>
           <a:ext cx="268940" cy="268940"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -897,26 +897,26 @@
       <nvPicPr>
         <cNvPr id="13" name="Рисунок 12"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="1838004" y="2985160"/>
           <a:ext cx="238820" cy="234663"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -935,24 +935,24 @@
       <nvPicPr>
         <cNvPr id="3" name="Рисунок 2"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="366060" y="239058"/>
           <a:ext cx="5437508" cy="3201333"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -973,13 +973,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1249,7 +1249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1436,7 +1436,7 @@
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="66" t="inlineStr">
         <is>
-          <t>MAKSIM BORONENKOSHVILI</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H5" s="15" t="n"/>
@@ -1452,7 +1452,7 @@
       <c r="R5" s="15" t="n"/>
       <c r="S5" s="67" t="inlineStr">
         <is>
-          <t>qqew</t>
+          <t>1</t>
         </is>
       </c>
       <c r="T5" s="15" t="n"/>
@@ -1526,7 +1526,7 @@
       <c r="C7" s="10" t="n"/>
       <c r="D7" s="69" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F7" s="10" t="n"/>
@@ -1560,7 +1560,7 @@
       <c r="L8" s="15" t="n"/>
       <c r="M8" s="16" t="n"/>
       <c r="N8" s="70" t="n">
-        <v>45221</v>
+        <v>45267</v>
       </c>
       <c r="O8" s="15" t="n"/>
       <c r="P8" s="15" t="n"/>
@@ -1572,7 +1572,7 @@
       <c r="V8" s="16" t="n"/>
       <c r="W8" s="71" t="inlineStr">
         <is>
-          <t>Ростов</t>
+          <t>Санкт-Петербург</t>
         </is>
       </c>
       <c r="X8" s="15" t="n"/>
@@ -1621,8 +1621,10 @@
       <c r="AD10" s="74" t="n"/>
     </row>
     <row r="11" ht="19.2" customHeight="1" s="9">
-      <c r="A11" s="75" t="n">
-        <v>4</v>
+      <c r="A11" s="44" t="inlineStr">
+        <is>
+          <t>Место</t>
+        </is>
       </c>
       <c r="G11" s="46" t="inlineStr">
         <is>
@@ -1640,7 +1642,9 @@
       <c r="AD11" s="34" t="n"/>
     </row>
     <row r="12" ht="19.2" customHeight="1" s="9">
-      <c r="A12" s="42" t="n"/>
+      <c r="A12" s="75" t="n">
+        <v>1</v>
+      </c>
       <c r="B12" s="15" t="n"/>
       <c r="C12" s="15" t="n"/>
       <c r="D12" s="15" t="n"/>
@@ -1797,52 +1801,52 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="N12:V12"/>
+    <mergeCell ref="G14:V14"/>
+    <mergeCell ref="N6:V7"/>
+    <mergeCell ref="A16:AD16"/>
+    <mergeCell ref="W6:AD6"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="N8:V8"/>
+    <mergeCell ref="G3:AD3"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="N10:V10"/>
+    <mergeCell ref="G5:R5"/>
+    <mergeCell ref="G12:M12"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:R4"/>
+    <mergeCell ref="G6:M7"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="G11:M11"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G8:M8"/>
     <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="S5:AD5"/>
+    <mergeCell ref="W7:AD7"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="S4:AD4"/>
+    <mergeCell ref="W10:AD15"/>
+    <mergeCell ref="G10:M10"/>
     <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:V15"/>
-    <mergeCell ref="A16:AD16"/>
+    <mergeCell ref="D7:F8"/>
+    <mergeCell ref="W9:AD9"/>
+    <mergeCell ref="N11:V11"/>
+    <mergeCell ref="A11:F11"/>
     <mergeCell ref="G13:V13"/>
-    <mergeCell ref="G14:V14"/>
-    <mergeCell ref="W10:AD15"/>
-    <mergeCell ref="N8:V8"/>
     <mergeCell ref="W8:AD8"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G10:M10"/>
-    <mergeCell ref="G11:M11"/>
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="G12:M12"/>
-    <mergeCell ref="N11:V11"/>
-    <mergeCell ref="N10:V10"/>
-    <mergeCell ref="N12:V12"/>
-    <mergeCell ref="W9:AD9"/>
-    <mergeCell ref="W6:AD6"/>
-    <mergeCell ref="W7:AD7"/>
-    <mergeCell ref="N6:V7"/>
-    <mergeCell ref="G4:R4"/>
-    <mergeCell ref="S4:AD4"/>
-    <mergeCell ref="G5:R5"/>
-    <mergeCell ref="S5:AD5"/>
-    <mergeCell ref="G6:M7"/>
-    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="G2:AD2"/>
     <mergeCell ref="A1:F3"/>
-    <mergeCell ref="G3:AD3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D5:F5"/>
     <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:F8"/>
+    <mergeCell ref="G15:V15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G14" display="viptour2020@gmail.com" r:id="rId1"/>
+    <hyperlink ref="G14" display="viptour2020@gmail.com" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" paperSize="11"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/bileti.xlsx
+++ b/bileti.xlsx
@@ -1436,7 +1436,7 @@
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>123</t>
         </is>
       </c>
       <c r="H5" s="15" t="n"/>
@@ -1452,7 +1452,7 @@
       <c r="R5" s="15" t="n"/>
       <c r="S5" s="67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>123</t>
         </is>
       </c>
       <c r="T5" s="15" t="n"/>
@@ -1526,7 +1526,7 @@
       <c r="C7" s="10" t="n"/>
       <c r="D7" s="69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>123</t>
         </is>
       </c>
       <c r="F7" s="10" t="n"/>
@@ -1560,7 +1560,7 @@
       <c r="L8" s="15" t="n"/>
       <c r="M8" s="16" t="n"/>
       <c r="N8" s="70" t="n">
-        <v>45267</v>
+        <v>45323</v>
       </c>
       <c r="O8" s="15" t="n"/>
       <c r="P8" s="15" t="n"/>
@@ -1572,7 +1572,7 @@
       <c r="V8" s="16" t="n"/>
       <c r="W8" s="71" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Москва</t>
         </is>
       </c>
       <c r="X8" s="15" t="n"/>

--- a/bileti.xlsx
+++ b/bileti.xlsx
@@ -1436,7 +1436,7 @@
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="66" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H5" s="15" t="n"/>
@@ -1452,7 +1452,7 @@
       <c r="R5" s="15" t="n"/>
       <c r="S5" s="67" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>12</t>
         </is>
       </c>
       <c r="T5" s="15" t="n"/>
@@ -1526,7 +1526,7 @@
       <c r="C7" s="10" t="n"/>
       <c r="D7" s="69" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F7" s="10" t="n"/>
@@ -1560,7 +1560,7 @@
       <c r="L8" s="15" t="n"/>
       <c r="M8" s="16" t="n"/>
       <c r="N8" s="70" t="n">
-        <v>45323</v>
+        <v>45375</v>
       </c>
       <c r="O8" s="15" t="n"/>
       <c r="P8" s="15" t="n"/>
@@ -1572,7 +1572,7 @@
       <c r="V8" s="16" t="n"/>
       <c r="W8" s="71" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Санкт-Петербург</t>
         </is>
       </c>
       <c r="X8" s="15" t="n"/>

--- a/bileti.xlsx
+++ b/bileti.xlsx
@@ -1436,7 +1436,7 @@
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="66" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>123</t>
         </is>
       </c>
       <c r="H5" s="15" t="n"/>
@@ -1452,7 +1452,7 @@
       <c r="R5" s="15" t="n"/>
       <c r="S5" s="67" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>123</t>
         </is>
       </c>
       <c r="T5" s="15" t="n"/>
@@ -1526,7 +1526,7 @@
       <c r="C7" s="10" t="n"/>
       <c r="D7" s="69" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>123</t>
         </is>
       </c>
       <c r="F7" s="10" t="n"/>
@@ -1560,7 +1560,7 @@
       <c r="L8" s="15" t="n"/>
       <c r="M8" s="16" t="n"/>
       <c r="N8" s="70" t="n">
-        <v>45375</v>
+        <v>45323</v>
       </c>
       <c r="O8" s="15" t="n"/>
       <c r="P8" s="15" t="n"/>
@@ -1572,7 +1572,7 @@
       <c r="V8" s="16" t="n"/>
       <c r="W8" s="71" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Москва</t>
         </is>
       </c>
       <c r="X8" s="15" t="n"/>

--- a/bileti.xlsx
+++ b/bileti.xlsx
@@ -1436,7 +1436,7 @@
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="66" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>JOI</t>
         </is>
       </c>
       <c r="H5" s="15" t="n"/>
@@ -1452,7 +1452,7 @@
       <c r="R5" s="15" t="n"/>
       <c r="S5" s="67" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>oij</t>
         </is>
       </c>
       <c r="T5" s="15" t="n"/>
@@ -1520,13 +1520,13 @@
     <row r="7" ht="19.2" customHeight="1" s="9">
       <c r="A7" s="68" t="inlineStr">
         <is>
-          <t>₾</t>
+          <t>₽</t>
         </is>
       </c>
       <c r="C7" s="10" t="n"/>
       <c r="D7" s="69" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="F7" s="10" t="n"/>
@@ -1560,7 +1560,7 @@
       <c r="L8" s="15" t="n"/>
       <c r="M8" s="16" t="n"/>
       <c r="N8" s="70" t="n">
-        <v>45375</v>
+        <v>45389</v>
       </c>
       <c r="O8" s="15" t="n"/>
       <c r="P8" s="15" t="n"/>
@@ -1572,7 +1572,7 @@
       <c r="V8" s="16" t="n"/>
       <c r="W8" s="71" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Тбилиси</t>
         </is>
       </c>
       <c r="X8" s="15" t="n"/>

--- a/bileti.xlsx
+++ b/bileti.xlsx
@@ -1436,7 +1436,7 @@
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="66" t="inlineStr">
         <is>
-          <t>JOI</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H5" s="15" t="n"/>
@@ -1452,7 +1452,7 @@
       <c r="R5" s="15" t="n"/>
       <c r="S5" s="67" t="inlineStr">
         <is>
-          <t>oij</t>
+          <t>12</t>
         </is>
       </c>
       <c r="T5" s="15" t="n"/>
@@ -1520,13 +1520,13 @@
     <row r="7" ht="19.2" customHeight="1" s="9">
       <c r="A7" s="68" t="inlineStr">
         <is>
-          <t>₽</t>
+          <t>₾</t>
         </is>
       </c>
       <c r="C7" s="10" t="n"/>
       <c r="D7" s="69" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F7" s="10" t="n"/>
@@ -1560,7 +1560,7 @@
       <c r="L8" s="15" t="n"/>
       <c r="M8" s="16" t="n"/>
       <c r="N8" s="70" t="n">
-        <v>45389</v>
+        <v>45393</v>
       </c>
       <c r="O8" s="15" t="n"/>
       <c r="P8" s="15" t="n"/>
@@ -1572,7 +1572,7 @@
       <c r="V8" s="16" t="n"/>
       <c r="W8" s="71" t="inlineStr">
         <is>
-          <t>Тбилиси</t>
+          <t>Москва</t>
         </is>
       </c>
       <c r="X8" s="15" t="n"/>

--- a/bileti.xlsx
+++ b/bileti.xlsx
@@ -1436,7 +1436,7 @@
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="66" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>MARIA MAKSIMOVA</t>
         </is>
       </c>
       <c r="H5" s="15" t="n"/>
@@ -1452,7 +1452,7 @@
       <c r="R5" s="15" t="n"/>
       <c r="S5" s="67" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>57001060603</t>
         </is>
       </c>
       <c r="T5" s="15" t="n"/>
@@ -1526,7 +1526,7 @@
       <c r="C7" s="10" t="n"/>
       <c r="D7" s="69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F7" s="10" t="n"/>
@@ -1550,7 +1550,7 @@
       <c r="F8" s="16" t="n"/>
       <c r="G8" s="69" t="inlineStr">
         <is>
-          <t>М / მმ</t>
+          <t>Ж / მდ</t>
         </is>
       </c>
       <c r="H8" s="15" t="n"/>
@@ -1560,7 +1560,7 @@
       <c r="L8" s="15" t="n"/>
       <c r="M8" s="16" t="n"/>
       <c r="N8" s="70" t="n">
-        <v>45393</v>
+        <v>45463</v>
       </c>
       <c r="O8" s="15" t="n"/>
       <c r="P8" s="15" t="n"/>
@@ -1726,7 +1726,7 @@
     <row r="15" ht="23.4" customHeight="1" s="9">
       <c r="A15" s="68" t="inlineStr">
         <is>
-          <t>11 : 00</t>
+          <t>10 : 00</t>
         </is>
       </c>
       <c r="B15" s="15" t="n"/>

--- a/bileti.xlsx
+++ b/bileti.xlsx
@@ -1436,7 +1436,7 @@
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="66" t="inlineStr">
         <is>
-          <t>MARIA MAKSIMOVA</t>
+          <t>123123</t>
         </is>
       </c>
       <c r="H5" s="15" t="n"/>
@@ -1452,7 +1452,7 @@
       <c r="R5" s="15" t="n"/>
       <c r="S5" s="67" t="inlineStr">
         <is>
-          <t>57001060603</t>
+          <t>123123</t>
         </is>
       </c>
       <c r="T5" s="15" t="n"/>
@@ -1550,7 +1550,7 @@
       <c r="F8" s="16" t="n"/>
       <c r="G8" s="69" t="inlineStr">
         <is>
-          <t>Ж / მდ</t>
+          <t>М / მმ</t>
         </is>
       </c>
       <c r="H8" s="15" t="n"/>
@@ -1572,7 +1572,7 @@
       <c r="V8" s="16" t="n"/>
       <c r="W8" s="71" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Тула</t>
         </is>
       </c>
       <c r="X8" s="15" t="n"/>
